--- a/요구사항정의서(회원관련).xlsx
+++ b/요구사항정의서(회원관련).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF3EB78-A91A-4AFC-A6A5-1333A740E507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DF0954-E3EA-4CC9-8D9C-22933FBC5D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{7BE164DC-9929-4CDC-96F7-75AC0A42D760}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{7BE164DC-9929-4CDC-96F7-75AC0A42D760}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="요구사항 명세서(텍스트)" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="요구사항정의(회원,상점)" sheetId="5" r:id="rId4"/>
     <sheet name="요구사항상세(김혜진)" sheetId="7" r:id="rId5"/>
+    <sheet name="유효성체크상황" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'요구사항 정의서'!$A$5:$G$126</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'요구사항상세(김혜진)'!$B$5:$I$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'요구사항상세(김혜진)'!$B$5:$I$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'요구사항정의(회원,상점)'!$A$5:$J$183</definedName>
     <definedName name="메인페이지" localSheetId="1">'요구사항 명세서'!$A$93</definedName>
     <definedName name="메인페이지" localSheetId="2">'요구사항 명세서(텍스트)'!$A$93</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6374" uniqueCount="1661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6512" uniqueCount="1716">
   <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5964,10 +5965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>'내정보관리' (으)로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정보 일치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6133,6 +6130,230 @@
   </si>
   <si>
     <t>이전 로그인 시 자동로그인 선택, sessionid 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 성공 후 페이지 이동 예외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 형식이 올바르지 않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일형식이 올바르지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력필드 하단에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 존재하는 회원입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용중인 닉네임입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 입력필드 하단에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 8자 미만으로 입력한 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8~15자를 입력하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력필드 우측에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호와 비밀번호확인이 일치하지 않는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 일치하지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호확인 입력필드 우측에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름이 입력되지 않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 입력이 필요합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert 메시지 띄움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 버튼 클릭 후 모든 유효성체크를 통과하지 못한 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력하신 정보를 다시 확인해주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert 메시지 띄움, 통과하지 못한 모든 입력필드에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일이 입력되지 않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일이 중복된 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임이 중복된 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 입력되지 않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력필드에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력필드에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일이 입력되지 않았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임이 입력되지 않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임이 입력되지 않았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 입력되지 않았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호가 입력되지 않았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호 입력필드에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호, 이메일@뒷자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호, 새비밀번호, 새비밀번호 확인을 입력받는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호가 입력되지 않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 앞부분이 입력되지 않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일입력창에 @뒷부분까지 적거나 형식이 올바르지 않을 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새비밀번호확인이 입력되지 않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새비밀번호학인이 입력되지 않았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호 입력필드 우측에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새비밀번호 입력필드 우측에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력필드 우측에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 내용이 변경 조건에 부합하지 않을 경우 비밀번호 변경 실패를 안내하고 비밀번호 찾기 페이지로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경되었음을 안내하고 '로그인페이지' (으)로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경되었음을 안내하고 '마이페이지' (으)로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새비밀번호확인 입력필드 우측에 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새비밀번호가 입력되지 않은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새비밀번호가 입력되지 않았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새비밀번호와 새비밀번호확인이 일치하지 않는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석이 완료되었음을 스크립트로 안내하고 현재페이지를 유지한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 확인페이지' (으)로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 수정을 취소하고 내정보 확인페이지(으)로 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6321,7 +6542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6387,8 +6608,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -6527,6 +6754,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6536,7 +6778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6904,6 +7146,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35032,9 +35301,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA977A27-8537-4830-A466-EEEE333129ED}">
   <dimension ref="A1:J183"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D180" sqref="D180"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="22.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -37102,7 +37371,7 @@
         <v>1007</v>
       </c>
       <c r="H83" s="67" t="s">
-        <v>1530</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="54" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -39363,7 +39632,7 @@
         <v>13</v>
       </c>
       <c r="D177" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F177" s="40" t="s">
         <v>303</v>
@@ -39384,7 +39653,7 @@
         <v>83</v>
       </c>
       <c r="D178" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F178" s="40" t="s">
         <v>1232</v>
@@ -39405,7 +39674,7 @@
         <v>83</v>
       </c>
       <c r="D179" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F179" s="40" t="s">
         <v>1234</v>
@@ -39426,7 +39695,7 @@
         <v>83</v>
       </c>
       <c r="D180" s="40" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F180" s="40" t="s">
         <v>305</v>
@@ -39536,11 +39805,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D7A19E-9564-4D1D-BDD8-66528446B2BE}">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="22.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -39654,7 +39923,7 @@
     </row>
     <row r="6" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>1248</v>
@@ -39699,7 +39968,7 @@
       </c>
       <c r="G7" s="65"/>
       <c r="H7" s="65" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I7" s="65"/>
       <c r="J7" s="81"/>
@@ -39725,7 +39994,7 @@
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="65" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I8" s="65"/>
       <c r="J8" s="81"/>
@@ -39751,7 +40020,7 @@
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="65" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="I9" s="65"/>
       <c r="J9" s="81"/>
@@ -39777,7 +40046,7 @@
       </c>
       <c r="G10" s="65"/>
       <c r="H10" s="65" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="I10" s="65"/>
       <c r="J10" s="81"/>
@@ -39805,7 +40074,7 @@
         <v>1007</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I11" s="65"/>
       <c r="J11" s="81"/>
@@ -39833,7 +40102,7 @@
         <v>1007</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="81"/>
@@ -39861,7 +40130,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I13" s="65"/>
       <c r="J13" s="81"/>
@@ -39889,7 +40158,7 @@
         <v>54</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I14" s="65"/>
       <c r="J14" s="81"/>
@@ -39917,7 +40186,7 @@
         <v>54</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="I15" s="65"/>
       <c r="J15" s="81"/>
@@ -39971,7 +40240,7 @@
         <v>1065</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="I17" s="65"/>
       <c r="J17" s="81"/>
@@ -39999,14 +40268,14 @@
         <v>1065</v>
       </c>
       <c r="H18" s="65" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="I18" s="65"/>
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>1250</v>
@@ -40208,7 +40477,7 @@
     </row>
     <row r="27" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B27" s="59" t="s">
         <v>1335</v>
@@ -40236,7 +40505,7 @@
     </row>
     <row r="28" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>1334</v>
@@ -40264,7 +40533,7 @@
     </row>
     <row r="29" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B29" s="59" t="s">
         <v>1333</v>
@@ -40322,7 +40591,7 @@
     </row>
     <row r="31" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B31" s="59" t="s">
         <v>1331</v>
@@ -40340,7 +40609,7 @@
         <v>1462</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H31" s="59" t="s">
         <v>1461</v>
@@ -40350,7 +40619,7 @@
     </row>
     <row r="32" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B32" s="60" t="s">
         <v>1330</v>
@@ -40378,7 +40647,7 @@
     </row>
     <row r="33" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B33" s="59" t="s">
         <v>1329</v>
@@ -40432,7 +40701,7 @@
     </row>
     <row r="35" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B35" s="59" t="s">
         <v>1327</v>
@@ -40460,7 +40729,7 @@
     </row>
     <row r="36" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B36" s="59" t="s">
         <v>1326</v>
@@ -40564,7 +40833,7 @@
     </row>
     <row r="40" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B40" s="75" t="s">
         <v>1322</v>
@@ -40585,14 +40854,14 @@
         <v>1007</v>
       </c>
       <c r="H40" s="75" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I40" s="75"/>
       <c r="J40" s="81"/>
     </row>
     <row r="41" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B41" s="59" t="s">
         <v>1321</v>
@@ -40661,7 +40930,7 @@
       </c>
       <c r="G43" s="54"/>
       <c r="H43" s="54" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="I43" s="54"/>
       <c r="J43" s="81"/>
@@ -40684,7 +40953,7 @@
       </c>
       <c r="G44" s="54"/>
       <c r="H44" s="54" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="I44" s="54"/>
       <c r="J44" s="81"/>
@@ -40714,7 +40983,7 @@
     </row>
     <row r="46" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B46" s="69" t="s">
         <v>1316</v>
@@ -40752,18 +41021,18 @@
         <v>1496</v>
       </c>
       <c r="F47" s="54" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G47" s="54"/>
       <c r="H47" s="54" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="122"/>
     </row>
     <row r="48" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B48" s="69" t="s">
         <v>1315</v>
@@ -40785,7 +41054,7 @@
         <v>1026</v>
       </c>
       <c r="I48" s="69" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="J48" s="81"/>
     </row>
@@ -40801,14 +41070,14 @@
         <v>1496</v>
       </c>
       <c r="F49" s="54" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G49" s="54"/>
       <c r="H49" s="54" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I49" s="54" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="J49" s="122"/>
     </row>
@@ -40829,10 +41098,10 @@
         <v>294</v>
       </c>
       <c r="G50" s="54" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H50" s="54" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="I50" s="54"/>
       <c r="J50" s="81"/>
@@ -40854,10 +41123,10 @@
         <v>296</v>
       </c>
       <c r="G51" s="54" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="I51" s="54" t="s">
         <v>1069</v>
@@ -40894,7 +41163,7 @@
     </row>
     <row r="53" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B53" s="59" t="s">
         <v>1311</v>
@@ -40922,7 +41191,7 @@
     </row>
     <row r="54" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B54" s="59" t="s">
         <v>1310</v>
@@ -40943,14 +41212,14 @@
         <v>1613</v>
       </c>
       <c r="H54" s="59" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="I54" s="59"/>
       <c r="J54" s="81"/>
     </row>
     <row r="55" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B55" s="59" t="s">
         <v>1309</v>
@@ -41028,57 +41297,53 @@
       <c r="J57" s="81"/>
     </row>
     <row r="58" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B58" s="75" t="s">
+      <c r="B58" s="54"/>
+      <c r="C58" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="54" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F58" s="54" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="81"/>
+    </row>
+    <row r="59" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B59" s="75" t="s">
         <v>1306</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C59" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="75" t="s">
+      <c r="D59" s="75" t="s">
         <v>1508</v>
       </c>
-      <c r="E58" s="75" t="s">
+      <c r="E59" s="75" t="s">
         <v>1486</v>
       </c>
-      <c r="F58" s="75" t="s">
+      <c r="F59" s="75" t="s">
         <v>1509</v>
       </c>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75" t="s">
+      <c r="G59" s="75"/>
+      <c r="H59" s="75" t="s">
         <v>1510</v>
       </c>
-      <c r="I58" s="75"/>
-      <c r="J58" s="81"/>
-    </row>
-    <row r="59" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="54" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="54" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E59" s="54" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F59" s="54" t="s">
-        <v>314</v>
-      </c>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54" t="s">
-        <v>1644</v>
-      </c>
-      <c r="I59" s="54"/>
+      <c r="I59" s="75"/>
       <c r="J59" s="81"/>
     </row>
     <row r="60" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="54" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C60" s="54" t="s">
         <v>13</v>
@@ -41087,80 +41352,75 @@
         <v>1508</v>
       </c>
       <c r="E60" s="54" t="s">
-        <v>1505</v>
+        <v>1486</v>
       </c>
       <c r="F60" s="54" t="s">
-        <v>1056</v>
+        <v>314</v>
       </c>
       <c r="G60" s="54"/>
       <c r="H60" s="54" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I60" s="54"/>
+      <c r="J60" s="81"/>
+    </row>
+    <row r="61" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="54" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C61" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="54" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E61" s="54" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54" t="s">
         <v>1511</v>
       </c>
-      <c r="I60" s="54" t="s">
-        <v>1410</v>
-      </c>
-      <c r="J60" s="81"/>
-    </row>
-    <row r="61" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C61" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="65" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E61" s="65" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F61" s="65" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65" t="s">
-        <v>1515</v>
-      </c>
-      <c r="I61" s="65"/>
+      <c r="I61" s="54" t="s">
+        <v>1695</v>
+      </c>
       <c r="J61" s="81"/>
     </row>
     <row r="62" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B62" s="59" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C62" s="59" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B62" s="65" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C62" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="65" t="s">
         <v>1508</v>
       </c>
-      <c r="E62" s="59" t="s">
+      <c r="E62" s="65" t="s">
         <v>1505</v>
       </c>
-      <c r="F62" s="59" t="s">
-        <v>1512</v>
-      </c>
-      <c r="G62" s="59" t="s">
-        <v>1471</v>
-      </c>
-      <c r="H62" s="59" t="s">
-        <v>1450</v>
-      </c>
-      <c r="I62" s="59"/>
+      <c r="F62" s="65" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I62" s="65"/>
       <c r="J62" s="81"/>
     </row>
     <row r="63" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C63" s="59" t="s">
         <v>13</v>
@@ -41172,130 +41432,130 @@
         <v>1505</v>
       </c>
       <c r="F63" s="59" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G63" s="59" t="s">
-        <v>1054</v>
+        <v>1471</v>
       </c>
       <c r="H63" s="59" t="s">
-        <v>1514</v>
+        <v>1450</v>
       </c>
       <c r="I63" s="59"/>
       <c r="J63" s="81"/>
     </row>
     <row r="64" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B64" s="73" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F64" s="59" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H64" s="59" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I64" s="59"/>
+      <c r="J64" s="81"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B65" s="73" t="s">
         <v>1300</v>
       </c>
-      <c r="C64" s="73" t="s">
+      <c r="C65" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="73" t="s">
+      <c r="D65" s="73" t="s">
         <v>1508</v>
       </c>
-      <c r="E64" s="73" t="s">
+      <c r="E65" s="73" t="s">
         <v>1505</v>
       </c>
-      <c r="F64" s="73" t="s">
+      <c r="F65" s="73" t="s">
         <v>1412</v>
       </c>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73" t="s">
+      <c r="G65" s="73"/>
+      <c r="H65" s="73" t="s">
         <v>1516</v>
       </c>
-      <c r="I64" s="73" t="s">
+      <c r="I65" s="73" t="s">
         <v>1069</v>
       </c>
-      <c r="J64" s="81"/>
-    </row>
-    <row r="65" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="54" t="s">
+      <c r="J65" s="81"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="54" t="s">
         <v>1251</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C66" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D66" s="54" t="s">
         <v>1507</v>
       </c>
-      <c r="E65" s="54" t="s">
+      <c r="E66" s="54" t="s">
         <v>1506</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F66" s="54" t="s">
         <v>1058</v>
       </c>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54" t="s">
+      <c r="G66" s="54"/>
+      <c r="H66" s="54" t="s">
         <v>1520</v>
       </c>
-      <c r="I65" s="54" t="s">
+      <c r="I66" s="54" t="s">
         <v>1411</v>
       </c>
-      <c r="J65" s="81"/>
-    </row>
-    <row r="66" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B66" s="65" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C66" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="65" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E66" s="65" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F66" s="65" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I66" s="65"/>
       <c r="J66" s="81"/>
     </row>
     <row r="67" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B67" s="59" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C67" s="59" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B67" s="65" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C67" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="65" t="s">
         <v>1508</v>
       </c>
-      <c r="E67" s="59" t="s">
+      <c r="E67" s="65" t="s">
         <v>1506</v>
       </c>
-      <c r="F67" s="59" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G67" s="59" t="s">
-        <v>1471</v>
-      </c>
-      <c r="H67" s="59" t="s">
-        <v>1450</v>
-      </c>
-      <c r="I67" s="59"/>
+      <c r="F67" s="65" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I67" s="65"/>
       <c r="J67" s="81"/>
     </row>
     <row r="68" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B68" s="59" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C68" s="59" t="s">
         <v>13</v>
@@ -41307,746 +41567,744 @@
         <v>1506</v>
       </c>
       <c r="F68" s="59" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="G68" s="59" t="s">
-        <v>1054</v>
+        <v>1471</v>
       </c>
       <c r="H68" s="59" t="s">
-        <v>1514</v>
+        <v>1450</v>
       </c>
       <c r="I68" s="59"/>
       <c r="J68" s="81"/>
     </row>
     <row r="69" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B69" s="73" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C69" s="73" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C69" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="73" t="s">
+      <c r="D69" s="59" t="s">
         <v>1508</v>
       </c>
-      <c r="E69" s="73" t="s">
+      <c r="E69" s="59" t="s">
         <v>1506</v>
       </c>
-      <c r="F69" s="73" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G69" s="73" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H69" s="73" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I69" s="73"/>
+      <c r="F69" s="59" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G69" s="59" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H69" s="59" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I69" s="59"/>
       <c r="J69" s="81"/>
     </row>
     <row r="70" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B70" s="75" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B70" s="73" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C70" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="73" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E70" s="73" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F70" s="73" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G70" s="73" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H70" s="73" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I70" s="73"/>
+      <c r="J70" s="81"/>
+    </row>
+    <row r="71" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B71" s="75" t="s">
         <v>1294</v>
       </c>
-      <c r="C70" s="75" t="s">
+      <c r="C71" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="75" t="s">
+      <c r="D71" s="75" t="s">
         <v>1508</v>
       </c>
-      <c r="E70" s="75" t="s">
+      <c r="E71" s="75" t="s">
         <v>1517</v>
       </c>
-      <c r="F70" s="75" t="s">
+      <c r="F71" s="75" t="s">
         <v>1518</v>
       </c>
-      <c r="G70" s="75"/>
-      <c r="H70" s="75" t="s">
+      <c r="G71" s="75"/>
+      <c r="H71" s="75" t="s">
         <v>1539</v>
       </c>
-      <c r="I70" s="75"/>
-      <c r="J70" s="81"/>
-    </row>
-    <row r="71" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="54" t="s">
+      <c r="I71" s="75"/>
+      <c r="J71" s="81"/>
+    </row>
+    <row r="72" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="54" t="s">
         <v>1293</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C72" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="54" t="s">
+      <c r="D72" s="54" t="s">
         <v>1508</v>
       </c>
-      <c r="E71" s="54" t="s">
+      <c r="E72" s="54" t="s">
         <v>1517</v>
       </c>
-      <c r="F71" s="54" t="s">
+      <c r="F72" s="54" t="s">
         <v>1519</v>
       </c>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54" t="s">
+      <c r="G72" s="54"/>
+      <c r="H72" s="54" t="s">
         <v>1043</v>
       </c>
-      <c r="I71" s="54"/>
-      <c r="J71" s="81"/>
-    </row>
-    <row r="72" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B72" s="75" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C72" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="75" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E72" s="75" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F72" s="75" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G72" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="H72" s="75" t="s">
-        <v>1526</v>
-      </c>
-      <c r="I72" s="75" t="s">
-        <v>1078</v>
-      </c>
+      <c r="I72" s="54"/>
       <c r="J72" s="81"/>
     </row>
-    <row r="73" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B73" s="65" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C73" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="65" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E73" s="65" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F73" s="65" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65" t="s">
-        <v>1531</v>
-      </c>
-      <c r="I73" s="65"/>
+    <row r="73" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="54"/>
+      <c r="C73" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F73" s="54" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54" t="s">
+        <v>1640</v>
+      </c>
+      <c r="I73" s="54"/>
       <c r="J73" s="81"/>
     </row>
     <row r="74" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="54" t="s">
-        <v>1252</v>
-      </c>
+      <c r="B74" s="54"/>
       <c r="C74" s="54" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D74" s="54" t="s">
-        <v>1060</v>
+        <v>1508</v>
       </c>
       <c r="E74" s="54" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="F74" s="54" t="s">
-        <v>1534</v>
-      </c>
-      <c r="G74" s="54" t="s">
-        <v>54</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G74" s="54"/>
       <c r="H74" s="54" t="s">
-        <v>1529</v>
+        <v>1643</v>
       </c>
       <c r="I74" s="54"/>
       <c r="J74" s="81"/>
     </row>
     <row r="75" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="54" t="s">
+      <c r="A75" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B75" s="75" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C75" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E75" s="75" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F75" s="75" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G75" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" s="75" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I75" s="75" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J75" s="81"/>
+    </row>
+    <row r="76" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="65" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E76" s="65" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F76" s="65" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I76" s="65"/>
+      <c r="J76" s="81"/>
+    </row>
+    <row r="77" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="54" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E77" s="54" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G77" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" s="54" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I77" s="54"/>
+      <c r="J77" s="81"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="54" t="s">
         <v>1290</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C78" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="54" t="s">
+      <c r="D78" s="54" t="s">
         <v>1060</v>
       </c>
-      <c r="E75" s="54" t="s">
+      <c r="E78" s="54" t="s">
         <v>1532</v>
       </c>
-      <c r="F75" s="54" t="s">
+      <c r="F78" s="54" t="s">
         <v>1533</v>
       </c>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54" t="s">
+      <c r="G78" s="54"/>
+      <c r="H78" s="54" t="s">
         <v>1528</v>
       </c>
-      <c r="I75" s="54"/>
-      <c r="J75" s="81"/>
-    </row>
-    <row r="76" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B76" s="59" t="s">
+      <c r="I78" s="54"/>
+      <c r="J78" s="81"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B79" s="59" t="s">
         <v>1289</v>
       </c>
-      <c r="C76" s="59" t="s">
+      <c r="C79" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="59" t="s">
+      <c r="D79" s="59" t="s">
         <v>1060</v>
       </c>
-      <c r="E76" s="59" t="s">
+      <c r="E79" s="59" t="s">
         <v>1532</v>
       </c>
-      <c r="F76" s="59" t="s">
+      <c r="F79" s="59" t="s">
         <v>1536</v>
       </c>
-      <c r="G76" s="59" t="s">
+      <c r="G79" s="59" t="s">
         <v>1471</v>
       </c>
-      <c r="H76" s="59" t="s">
+      <c r="H79" s="59" t="s">
         <v>1450</v>
       </c>
-      <c r="I76" s="59"/>
-      <c r="J76" s="81"/>
-    </row>
-    <row r="77" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B77" s="59" t="s">
+      <c r="I79" s="59"/>
+      <c r="J79" s="81"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B80" s="59" t="s">
         <v>1288</v>
       </c>
-      <c r="C77" s="59" t="s">
+      <c r="C80" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="59" t="s">
+      <c r="D80" s="59" t="s">
         <v>1060</v>
       </c>
-      <c r="E77" s="59" t="s">
+      <c r="E80" s="59" t="s">
         <v>1532</v>
       </c>
-      <c r="F77" s="59" t="s">
+      <c r="F80" s="59" t="s">
         <v>1537</v>
       </c>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59" t="s">
+      <c r="G80" s="59"/>
+      <c r="H80" s="59" t="s">
         <v>1542</v>
       </c>
-      <c r="I77" s="59"/>
-      <c r="J77" s="81"/>
-    </row>
-    <row r="78" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B78" s="73" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C78" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="73" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E78" s="73" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F78" s="73" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G78" s="73" t="s">
-        <v>1540</v>
-      </c>
-      <c r="H78" s="73" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I78" s="73"/>
-      <c r="J78" s="81"/>
-    </row>
-    <row r="79" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="54" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C79" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E79" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F79" s="54" t="s">
-        <v>1534</v>
-      </c>
-      <c r="G79" s="54" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H79" s="54" t="s">
-        <v>1530</v>
-      </c>
-      <c r="I79" s="54"/>
-      <c r="J79" s="81"/>
-    </row>
-    <row r="80" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="54" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C80" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="54" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E80" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F80" s="54" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I80" s="54"/>
+      <c r="I80" s="59"/>
       <c r="J80" s="81"/>
     </row>
     <row r="81" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B81" s="59" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C81" s="59" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B81" s="83" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C81" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="83" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E81" s="83" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F81" s="83" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G81" s="83" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H81" s="83" t="s">
+        <v>1708</v>
+      </c>
+      <c r="I81" s="83"/>
+      <c r="J81" s="81"/>
+    </row>
+    <row r="82" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="54" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C82" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="59" t="s">
+      <c r="D82" s="54" t="s">
         <v>1060</v>
       </c>
-      <c r="E81" s="59" t="s">
+      <c r="E82" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="F81" s="59" t="s">
-        <v>1536</v>
-      </c>
-      <c r="G81" s="59" t="s">
-        <v>1471</v>
-      </c>
-      <c r="H81" s="59" t="s">
-        <v>1450</v>
-      </c>
-      <c r="I81" s="59"/>
-      <c r="J81" s="81"/>
-    </row>
-    <row r="82" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B82" s="59" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C82" s="59" t="s">
+      <c r="F82" s="54" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G82" s="54" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H82" s="54" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I82" s="54"/>
+      <c r="J82" s="81"/>
+    </row>
+    <row r="83" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="54" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C83" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="59" t="s">
+      <c r="D83" s="54" t="s">
         <v>1060</v>
       </c>
-      <c r="E82" s="59" t="s">
+      <c r="E83" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="F82" s="59" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59" t="s">
-        <v>1544</v>
-      </c>
-      <c r="I82" s="59"/>
-      <c r="J82" s="81"/>
-    </row>
-    <row r="83" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B83" s="73" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C83" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="73" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E83" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F83" s="73" t="s">
-        <v>1538</v>
-      </c>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I83" s="73"/>
+      <c r="F83" s="54" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I83" s="54"/>
       <c r="J83" s="81"/>
     </row>
     <row r="84" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B84" s="75" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B84" s="59" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C84" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="59" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E84" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84" s="59" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G84" s="59" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H84" s="59" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I84" s="59"/>
+      <c r="J84" s="81"/>
+    </row>
+    <row r="85" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B85" s="59" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C85" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="59" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E85" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85" s="59" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I85" s="59"/>
+      <c r="J85" s="81"/>
+    </row>
+    <row r="86" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B86" s="83" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C86" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="83" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E86" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="F86" s="83" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G86" s="83"/>
+      <c r="H86" s="83" t="s">
+        <v>1707</v>
+      </c>
+      <c r="I86" s="83"/>
+      <c r="J86" s="81"/>
+    </row>
+    <row r="87" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B87" s="75" t="s">
         <v>1281</v>
       </c>
-      <c r="C84" s="75" t="s">
+      <c r="C87" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="75" t="s">
+      <c r="D87" s="75" t="s">
         <v>1066</v>
       </c>
-      <c r="E84" s="75" t="s">
+      <c r="E87" s="75" t="s">
         <v>1486</v>
       </c>
-      <c r="F84" s="75" t="s">
+      <c r="F87" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="G84" s="75"/>
-      <c r="H84" s="75" t="s">
+      <c r="G87" s="75"/>
+      <c r="H87" s="75" t="s">
         <v>1547</v>
       </c>
-      <c r="I84" s="75" t="s">
+      <c r="I87" s="75" t="s">
         <v>1069</v>
       </c>
-      <c r="J84" s="81"/>
-    </row>
-    <row r="85" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="54" t="s">
+      <c r="J87" s="81"/>
+    </row>
+    <row r="88" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="54" t="s">
         <v>1280</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C88" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="54" t="s">
+      <c r="D88" s="54" t="s">
         <v>1066</v>
       </c>
-      <c r="E85" s="54" t="s">
+      <c r="E88" s="54" t="s">
         <v>1486</v>
       </c>
-      <c r="F85" s="54" t="s">
+      <c r="F88" s="54" t="s">
         <v>1545</v>
       </c>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54" t="s">
+      <c r="G88" s="54"/>
+      <c r="H88" s="54" t="s">
         <v>1546</v>
       </c>
-      <c r="I85" s="54"/>
-      <c r="J85" s="81"/>
-    </row>
-    <row r="86" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="54" t="s">
+      <c r="I88" s="54"/>
+      <c r="J88" s="81"/>
+    </row>
+    <row r="89" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="54" t="s">
         <v>1279</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C89" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D86" s="54" t="s">
+      <c r="D89" s="54" t="s">
         <v>1081</v>
       </c>
-      <c r="E86" s="54" t="s">
+      <c r="E89" s="54" t="s">
         <v>1548</v>
       </c>
-      <c r="F86" s="54" t="s">
+      <c r="F89" s="54" t="s">
         <v>1079</v>
       </c>
-      <c r="G86" s="54" t="s">
+      <c r="G89" s="54" t="s">
         <v>1083</v>
       </c>
-      <c r="H86" s="54" t="s">
+      <c r="H89" s="54" t="s">
         <v>1082</v>
       </c>
-      <c r="I86" s="54" t="s">
+      <c r="I89" s="54" t="s">
         <v>1080</v>
       </c>
-      <c r="J86" s="81"/>
-    </row>
-    <row r="87" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="54" t="s">
+      <c r="J89" s="81"/>
+    </row>
+    <row r="90" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="54" t="s">
         <v>1278</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C90" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="54" t="s">
+      <c r="D90" s="54" t="s">
         <v>1081</v>
       </c>
-      <c r="E87" s="54" t="s">
+      <c r="E90" s="54" t="s">
         <v>1548</v>
       </c>
-      <c r="F87" s="54" t="s">
+      <c r="F90" s="54" t="s">
         <v>1084</v>
       </c>
-      <c r="G87" s="54"/>
-      <c r="H87" s="54" t="s">
+      <c r="G90" s="54"/>
+      <c r="H90" s="54" t="s">
         <v>1085</v>
       </c>
-      <c r="I87" s="54"/>
-      <c r="J87" s="81"/>
-    </row>
-    <row r="88" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B88" s="75" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C88" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="E88" s="75" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F88" s="75" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G88" s="75"/>
-      <c r="H88" s="75" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I88" s="75"/>
-      <c r="J88" s="81"/>
-    </row>
-    <row r="89" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B89" s="65" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C89" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="E89" s="65" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F89" s="65" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G89" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="H89" s="65" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I89" s="65"/>
-      <c r="J89" s="81"/>
-    </row>
-    <row r="90" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B90" s="82" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C90" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="E90" s="82" t="s">
-        <v>1550</v>
-      </c>
-      <c r="F90" s="82" t="s">
-        <v>1549</v>
-      </c>
-      <c r="G90" s="82" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H90" s="82" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I90" s="82"/>
+      <c r="I90" s="54"/>
       <c r="J90" s="81"/>
     </row>
     <row r="91" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B91" s="59" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C91" s="59" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B91" s="75" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C91" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D91" s="59" t="s">
+      <c r="D91" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="E91" s="59" t="s">
-        <v>1550</v>
-      </c>
-      <c r="F91" s="59" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G91" s="59" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H91" s="59" t="s">
-        <v>1564</v>
-      </c>
-      <c r="I91" s="59"/>
+      <c r="E91" s="75" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F91" s="75" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I91" s="75"/>
       <c r="J91" s="81"/>
     </row>
     <row r="92" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B92" s="83" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C92" s="83" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B92" s="65" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C92" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="83" t="s">
+      <c r="D92" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="83" t="s">
-        <v>1550</v>
-      </c>
-      <c r="F92" s="83" t="s">
-        <v>1551</v>
-      </c>
-      <c r="G92" s="83"/>
-      <c r="H92" s="83" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I92" s="83"/>
+      <c r="E92" s="65" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F92" s="65" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G92" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" s="65" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I92" s="65"/>
       <c r="J92" s="81"/>
     </row>
     <row r="93" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B93" s="75" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C93" s="75" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B93" s="82" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C93" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="E93" s="75" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F93" s="75" t="s">
-        <v>1554</v>
-      </c>
-      <c r="G93" s="75"/>
-      <c r="H93" s="75" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I93" s="75"/>
+      <c r="D93" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" s="82" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F93" s="82" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G93" s="82" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H93" s="82" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I93" s="82"/>
       <c r="J93" s="81"/>
     </row>
     <row r="94" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="54" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C94" s="54" t="s">
+      <c r="A94" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B94" s="59" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C94" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D94" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="E94" s="54" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F94" s="54" t="s">
-        <v>1603</v>
-      </c>
-      <c r="G94" s="54"/>
-      <c r="H94" s="54" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I94" s="54"/>
+      <c r="D94" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="E94" s="59" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F94" s="59" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G94" s="59" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H94" s="59" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I94" s="59"/>
       <c r="J94" s="81"/>
     </row>
     <row r="95" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="54" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C95" s="54" t="s">
+      <c r="A95" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B95" s="83" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C95" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="E95" s="54" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F95" s="54" t="s">
-        <v>1605</v>
-      </c>
-      <c r="G95" s="54"/>
-      <c r="H95" s="54" t="s">
-        <v>1572</v>
-      </c>
-      <c r="I95" s="54"/>
+      <c r="D95" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="E95" s="83" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F95" s="83" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G95" s="83"/>
+      <c r="H95" s="83" t="s">
+        <v>1713</v>
+      </c>
+      <c r="I95" s="83"/>
       <c r="J95" s="81"/>
     </row>
     <row r="96" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B96" s="65" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C96" s="65" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B96" s="75" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C96" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D96" s="65" t="s">
+      <c r="D96" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="E96" s="65" t="s">
+      <c r="E96" s="75" t="s">
         <v>1486</v>
       </c>
-      <c r="F96" s="65" t="s">
-        <v>1570</v>
-      </c>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I96" s="65"/>
+      <c r="F96" s="75" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I96" s="75"/>
       <c r="J96" s="81"/>
     </row>
     <row r="97" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="54" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="C97" s="54" t="s">
         <v>23</v>
@@ -42055,79 +42313,70 @@
         <v>212</v>
       </c>
       <c r="E97" s="54" t="s">
-        <v>1552</v>
+        <v>1486</v>
       </c>
       <c r="F97" s="54" t="s">
-        <v>1555</v>
+        <v>1603</v>
       </c>
       <c r="G97" s="54"/>
       <c r="H97" s="54" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I97" s="54" t="s">
-        <v>1069</v>
-      </c>
+        <v>1604</v>
+      </c>
+      <c r="I97" s="54"/>
       <c r="J97" s="81"/>
     </row>
     <row r="98" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B98" s="65" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C98" s="65" t="s">
+      <c r="B98" s="54" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C98" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="65" t="s">
+      <c r="D98" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="E98" s="65" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F98" s="65" t="s">
-        <v>1553</v>
-      </c>
-      <c r="G98" s="65" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H98" s="65" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I98" s="65"/>
+      <c r="E98" s="54" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F98" s="54" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54" t="s">
+        <v>1572</v>
+      </c>
+      <c r="I98" s="54"/>
       <c r="J98" s="81"/>
     </row>
     <row r="99" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B99" s="75" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C99" s="75" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B99" s="65" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C99" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D99" s="75" t="s">
+      <c r="D99" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="E99" s="75" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F99" s="75" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G99" s="75"/>
-      <c r="H99" s="75" t="s">
-        <v>1563</v>
-      </c>
-      <c r="I99" s="75" t="s">
-        <v>1201</v>
-      </c>
+      <c r="E99" s="65" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F99" s="65" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I99" s="65"/>
       <c r="J99" s="81"/>
     </row>
     <row r="100" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="54" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="C100" s="54" t="s">
         <v>23</v>
@@ -42136,17 +42385,17 @@
         <v>212</v>
       </c>
       <c r="E100" s="54" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="F100" s="54" t="s">
-        <v>1414</v>
+        <v>1555</v>
       </c>
       <c r="G100" s="54"/>
       <c r="H100" s="54" t="s">
-        <v>1413</v>
+        <v>1195</v>
       </c>
       <c r="I100" s="54" t="s">
-        <v>1203</v>
+        <v>1069</v>
       </c>
       <c r="J100" s="81"/>
     </row>
@@ -42155,7 +42404,7 @@
         <v>1456</v>
       </c>
       <c r="B101" s="65" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="C101" s="65" t="s">
         <v>23</v>
@@ -42164,26 +42413,26 @@
         <v>212</v>
       </c>
       <c r="E101" s="65" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="F101" s="65" t="s">
-        <v>1415</v>
+        <v>1553</v>
       </c>
       <c r="G101" s="65" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="H101" s="65" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="I101" s="65"/>
       <c r="J101" s="81"/>
     </row>
     <row r="102" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B102" s="75" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C102" s="75" t="s">
         <v>23</v>
@@ -42192,91 +42441,98 @@
         <v>212</v>
       </c>
       <c r="E102" s="75" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="F102" s="75" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G102" s="75"/>
       <c r="H102" s="75" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I102" s="75" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J102" s="81"/>
+    </row>
+    <row r="103" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B103" s="54" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C103" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="54" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F103" s="54" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I103" s="54" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J103" s="81"/>
+    </row>
+    <row r="104" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B104" s="65" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C104" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E104" s="65" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F104" s="65" t="s">
+        <v>1415</v>
+      </c>
+      <c r="G104" s="65" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H104" s="65" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I104" s="65"/>
+      <c r="J104" s="81"/>
+    </row>
+    <row r="105" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B105" s="75" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C105" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="E105" s="75" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F105" s="75" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G105" s="75"/>
+      <c r="H105" s="75" t="s">
         <v>1200</v>
       </c>
-      <c r="I102" s="75" t="s">
+      <c r="I105" s="75" t="s">
         <v>1205</v>
-      </c>
-      <c r="J102" s="81"/>
-    </row>
-    <row r="103" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B103" s="65" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C103" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D103" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="E103" s="65" t="s">
-        <v>1566</v>
-      </c>
-      <c r="F103" s="65" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I103" s="65"/>
-      <c r="J103" s="81"/>
-    </row>
-    <row r="104" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B104" s="54" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C104" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="E104" s="54" t="s">
-        <v>1566</v>
-      </c>
-      <c r="F104" s="54" t="s">
-        <v>1567</v>
-      </c>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I104" s="54"/>
-      <c r="J104" s="81"/>
-    </row>
-    <row r="105" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="54" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C105" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D105" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="E105" s="54" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F105" s="54" t="s">
-        <v>1417</v>
-      </c>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54" t="s">
-        <v>1419</v>
-      </c>
-      <c r="I105" s="54" t="s">
-        <v>1420</v>
       </c>
       <c r="J105" s="81"/>
     </row>
@@ -42285,7 +42541,7 @@
         <v>1456</v>
       </c>
       <c r="B106" s="65" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="C106" s="65" t="s">
         <v>23</v>
@@ -42294,23 +42550,21 @@
         <v>212</v>
       </c>
       <c r="E106" s="65" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="F106" s="65" t="s">
-        <v>1418</v>
-      </c>
-      <c r="G106" s="65" t="s">
-        <v>1568</v>
-      </c>
+        <v>1204</v>
+      </c>
+      <c r="G106" s="65"/>
       <c r="H106" s="65" t="s">
-        <v>1416</v>
+        <v>1206</v>
       </c>
       <c r="I106" s="65"/>
       <c r="J106" s="81"/>
     </row>
     <row r="107" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B107" s="54" t="s">
-        <v>1254</v>
+        <v>1262</v>
       </c>
       <c r="C107" s="54" t="s">
         <v>23</v>
@@ -42319,43 +42573,40 @@
         <v>212</v>
       </c>
       <c r="E107" s="54" t="s">
-        <v>1559</v>
+        <v>1566</v>
       </c>
       <c r="F107" s="54" t="s">
-        <v>1559</v>
+        <v>1567</v>
       </c>
       <c r="G107" s="54"/>
       <c r="H107" s="54" t="s">
-        <v>1569</v>
+        <v>1208</v>
       </c>
       <c r="I107" s="54"/>
       <c r="J107" s="81"/>
     </row>
     <row r="108" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B108" s="75" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C108" s="75" t="s">
+      <c r="B108" s="54" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C108" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="75" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E108" s="75" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F108" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="G108" s="75"/>
-      <c r="H108" s="75" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I108" s="75" t="s">
-        <v>1210</v>
+      <c r="D108" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" s="54" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F108" s="54" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I108" s="54" t="s">
+        <v>1420</v>
       </c>
       <c r="J108" s="81"/>
     </row>
@@ -42364,515 +42615,528 @@
         <v>1456</v>
       </c>
       <c r="B109" s="65" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C109" s="65" t="s">
         <v>23</v>
       </c>
       <c r="D109" s="65" t="s">
-        <v>1573</v>
+        <v>212</v>
       </c>
       <c r="E109" s="65" t="s">
-        <v>1574</v>
+        <v>1558</v>
       </c>
       <c r="F109" s="65" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G109" s="65"/>
+        <v>1418</v>
+      </c>
+      <c r="G109" s="65" t="s">
+        <v>1568</v>
+      </c>
       <c r="H109" s="65" t="s">
-        <v>1616</v>
+        <v>1416</v>
       </c>
       <c r="I109" s="65"/>
       <c r="J109" s="81"/>
     </row>
     <row r="110" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B110" s="65" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C110" s="65" t="s">
+      <c r="B110" s="54" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C110" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D110" s="65" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E110" s="65" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F110" s="65" t="s">
-        <v>890</v>
-      </c>
-      <c r="G110" s="65"/>
-      <c r="H110" s="65" t="s">
-        <v>1220</v>
-      </c>
-      <c r="I110" s="65"/>
+      <c r="D110" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E110" s="54" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F110" s="54" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G110" s="54"/>
+      <c r="H110" s="54" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I110" s="54"/>
       <c r="J110" s="81"/>
     </row>
     <row r="111" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B111" s="82" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C111" s="82" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B111" s="75" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C111" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D111" s="82" t="s">
+      <c r="D111" s="75" t="s">
         <v>1573</v>
       </c>
-      <c r="E111" s="82" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F111" s="82" t="s">
-        <v>1577</v>
-      </c>
-      <c r="G111" s="82" t="s">
-        <v>1578</v>
-      </c>
-      <c r="H111" s="82" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I111" s="82"/>
+      <c r="E111" s="75" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F111" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="G111" s="75"/>
+      <c r="H111" s="75" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I111" s="75" t="s">
+        <v>1210</v>
+      </c>
       <c r="J111" s="81"/>
     </row>
     <row r="112" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="54" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C112" s="54" t="s">
+      <c r="A112" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B112" s="65" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C112" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D112" s="54" t="s">
+      <c r="D112" s="65" t="s">
         <v>1573</v>
       </c>
-      <c r="E112" s="54" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F112" s="54" t="s">
-        <v>1614</v>
-      </c>
-      <c r="G112" s="54" t="s">
-        <v>1615</v>
-      </c>
-      <c r="H112" s="54" t="s">
-        <v>1575</v>
-      </c>
-      <c r="I112" s="54"/>
+      <c r="E112" s="65" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F112" s="65" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I112" s="65"/>
       <c r="J112" s="81"/>
     </row>
     <row r="113" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B113" s="75" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C113" s="75" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B113" s="65" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C113" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D113" s="75" t="s">
+      <c r="D113" s="65" t="s">
         <v>1573</v>
       </c>
-      <c r="E113" s="75" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F113" s="75" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G113" s="75"/>
-      <c r="H113" s="75" t="s">
-        <v>1215</v>
-      </c>
-      <c r="I113" s="75"/>
+      <c r="E113" s="65" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F113" s="65" t="s">
+        <v>890</v>
+      </c>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I113" s="65"/>
       <c r="J113" s="81"/>
     </row>
     <row r="114" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B114" s="65" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C114" s="65" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B114" s="82" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C114" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D114" s="65" t="s">
+      <c r="D114" s="82" t="s">
         <v>1573</v>
       </c>
-      <c r="E114" s="65" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F114" s="65" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65" t="s">
-        <v>1581</v>
-      </c>
-      <c r="I114" s="65"/>
+      <c r="E114" s="82" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F114" s="82" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G114" s="82" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H114" s="82" t="s">
+        <v>1579</v>
+      </c>
+      <c r="I114" s="82"/>
       <c r="J114" s="81"/>
     </row>
     <row r="115" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B115" s="65" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C115" s="65" t="s">
+      <c r="B115" s="54" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C115" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="65" t="s">
+      <c r="D115" s="54" t="s">
         <v>1573</v>
       </c>
-      <c r="E115" s="65" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F115" s="65" t="s">
-        <v>1580</v>
-      </c>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65" t="s">
-        <v>1216</v>
-      </c>
-      <c r="I115" s="65"/>
+      <c r="E115" s="54" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F115" s="54" t="s">
+        <v>1614</v>
+      </c>
+      <c r="G115" s="54" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H115" s="54" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I115" s="54"/>
       <c r="J115" s="81"/>
     </row>
     <row r="116" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B116" s="59" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C116" s="59" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B116" s="75" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C116" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D116" s="59" t="s">
+      <c r="D116" s="75" t="s">
         <v>1573</v>
       </c>
-      <c r="E116" s="59" t="s">
+      <c r="E116" s="75" t="s">
         <v>1214</v>
       </c>
-      <c r="F116" s="59" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G116" s="59" t="s">
-        <v>1471</v>
-      </c>
-      <c r="H116" s="59" t="s">
-        <v>1450</v>
-      </c>
-      <c r="I116" s="59"/>
+      <c r="F116" s="75" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G116" s="75"/>
+      <c r="H116" s="75" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I116" s="75"/>
       <c r="J116" s="81"/>
     </row>
     <row r="117" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B117" s="73" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C117" s="73" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B117" s="65" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C117" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D117" s="73" t="s">
+      <c r="D117" s="65" t="s">
         <v>1573</v>
       </c>
-      <c r="E117" s="73" t="s">
+      <c r="E117" s="65" t="s">
         <v>1214</v>
       </c>
-      <c r="F117" s="73" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G117" s="73"/>
-      <c r="H117" s="73" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I117" s="73"/>
+      <c r="F117" s="65" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G117" s="65"/>
+      <c r="H117" s="65" t="s">
+        <v>1715</v>
+      </c>
+      <c r="I117" s="65"/>
       <c r="J117" s="81"/>
     </row>
     <row r="118" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B118" s="75" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C118" s="75" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B118" s="65" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C118" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D118" s="75" t="s">
+      <c r="D118" s="65" t="s">
         <v>1573</v>
       </c>
-      <c r="E118" s="75" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F118" s="75" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G118" s="75" t="s">
-        <v>1221</v>
-      </c>
-      <c r="H118" s="75" t="s">
-        <v>1222</v>
-      </c>
-      <c r="I118" s="75"/>
+      <c r="E118" s="65" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F118" s="65" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G118" s="65"/>
+      <c r="H118" s="65" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I118" s="65"/>
       <c r="J118" s="81"/>
     </row>
     <row r="119" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="54" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C119" s="54" t="s">
+      <c r="A119" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B119" s="59" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C119" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D119" s="54" t="s">
+      <c r="D119" s="59" t="s">
         <v>1573</v>
       </c>
-      <c r="E119" s="54" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F119" s="54" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I119" s="54"/>
+      <c r="E119" s="59" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F119" s="59" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G119" s="59" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H119" s="59" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I119" s="59"/>
       <c r="J119" s="81"/>
     </row>
     <row r="120" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B120" s="65" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C120" s="65" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B120" s="73" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C120" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D120" s="65" t="s">
+      <c r="D120" s="73" t="s">
         <v>1573</v>
       </c>
-      <c r="E120" s="65" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F120" s="65" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G120" s="65"/>
-      <c r="H120" s="65" t="s">
-        <v>1226</v>
-      </c>
-      <c r="I120" s="65"/>
+      <c r="E120" s="73" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F120" s="73" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G120" s="73"/>
+      <c r="H120" s="73" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I120" s="73"/>
       <c r="J120" s="81"/>
     </row>
     <row r="121" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B121" s="59" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C121" s="59" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B121" s="75" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C121" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="59" t="s">
+      <c r="D121" s="75" t="s">
         <v>1573</v>
       </c>
-      <c r="E121" s="59" t="s">
+      <c r="E121" s="75" t="s">
         <v>1561</v>
       </c>
-      <c r="F121" s="59" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G121" s="59" t="s">
-        <v>1471</v>
-      </c>
-      <c r="H121" s="59" t="s">
-        <v>1450</v>
-      </c>
-      <c r="I121" s="59"/>
+      <c r="F121" s="75" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G121" s="75" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H121" s="75" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I121" s="75"/>
       <c r="J121" s="81"/>
     </row>
     <row r="122" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B122" s="65" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C122" s="65" t="s">
+      <c r="B122" s="54" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C122" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D122" s="65" t="s">
+      <c r="D122" s="54" t="s">
         <v>1573</v>
       </c>
-      <c r="E122" s="65" t="s">
+      <c r="E122" s="54" t="s">
         <v>1561</v>
       </c>
-      <c r="F122" s="65" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G122" s="65" t="s">
-        <v>1617</v>
-      </c>
-      <c r="H122" s="65" t="s">
-        <v>1618</v>
-      </c>
-      <c r="I122" s="65"/>
+      <c r="F122" s="54" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I122" s="54"/>
       <c r="J122" s="81"/>
     </row>
     <row r="123" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B123" s="73" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C123" s="73" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B123" s="65" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C123" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D123" s="73" t="s">
+      <c r="D123" s="65" t="s">
         <v>1573</v>
       </c>
-      <c r="E123" s="73" t="s">
+      <c r="E123" s="65" t="s">
         <v>1561</v>
       </c>
-      <c r="F123" s="73" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G123" s="73" t="s">
-        <v>1619</v>
-      </c>
-      <c r="H123" s="73" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I123" s="73"/>
+      <c r="F123" s="65" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I123" s="65"/>
       <c r="J123" s="81"/>
     </row>
     <row r="124" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B124" s="54" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C124" s="54" t="s">
+      <c r="A124" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B124" s="59" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C124" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D124" s="54" t="s">
+      <c r="D124" s="59" t="s">
         <v>1573</v>
       </c>
-      <c r="E124" s="54" t="s">
+      <c r="E124" s="59" t="s">
         <v>1561</v>
       </c>
-      <c r="F124" s="54" t="s">
-        <v>1621</v>
-      </c>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54" t="s">
-        <v>1622</v>
-      </c>
-      <c r="I124" s="54"/>
+      <c r="F124" s="59" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G124" s="59" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H124" s="59" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I124" s="59"/>
       <c r="J124" s="81"/>
     </row>
     <row r="125" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B125" s="75" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B125" s="65" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C125" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="65" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E125" s="65" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F125" s="65" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G125" s="65" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H125" s="131" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I125" s="65"/>
+      <c r="J125" s="81"/>
+    </row>
+    <row r="126" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B126" s="73" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C126" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="73" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E126" s="73" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F126" s="73" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G126" s="73" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H126" s="73" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I126" s="73"/>
+      <c r="J126" s="81"/>
+    </row>
+    <row r="127" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B127" s="54" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C127" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="54" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E127" s="54" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F127" s="54" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54" t="s">
+        <v>1621</v>
+      </c>
+      <c r="I127" s="54"/>
+      <c r="J127" s="81"/>
+    </row>
+    <row r="128" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B128" s="75" t="s">
         <v>1598</v>
       </c>
-      <c r="C125" s="75" t="s">
+      <c r="C128" s="75" t="s">
         <v>1238</v>
       </c>
-      <c r="D125" s="75" t="s">
+      <c r="D128" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="E125" s="75"/>
-      <c r="F125" s="75" t="s">
+      <c r="E128" s="75"/>
+      <c r="F128" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="G125" s="75"/>
-      <c r="H125" s="75" t="s">
-        <v>1623</v>
-      </c>
-      <c r="I125" s="75"/>
-      <c r="J125" s="81"/>
-    </row>
-    <row r="126" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="54" t="s">
+      <c r="G128" s="75"/>
+      <c r="H128" s="75" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I128" s="75"/>
+      <c r="J128" s="81"/>
+    </row>
+    <row r="129" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B129" s="54" t="s">
         <v>1599</v>
-      </c>
-      <c r="C126" s="54" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D126" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="E126" s="54"/>
-      <c r="F126" s="54" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I126" s="54"/>
-      <c r="J126" s="81"/>
-    </row>
-    <row r="127" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B127" s="65" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C127" s="65" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D127" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G127" s="65"/>
-      <c r="H127" s="65" t="s">
-        <v>1243</v>
-      </c>
-      <c r="I127" s="65"/>
-      <c r="J127" s="81"/>
-    </row>
-    <row r="128" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="54" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C128" s="54" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D128" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="E128" s="54"/>
-      <c r="F128" s="54" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G128" s="54"/>
-      <c r="H128" s="54" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I128" s="54"/>
-      <c r="J128" s="81"/>
-    </row>
-    <row r="129" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B129" s="54" t="s">
-        <v>1602</v>
       </c>
       <c r="C129" s="54" t="s">
         <v>1238</v>
@@ -42882,159 +43146,225 @@
       </c>
       <c r="E129" s="54"/>
       <c r="F129" s="54" t="s">
-        <v>1240</v>
+        <v>1020</v>
       </c>
       <c r="G129" s="54"/>
       <c r="H129" s="54" t="s">
-        <v>1625</v>
+        <v>1247</v>
       </c>
       <c r="I129" s="54"/>
       <c r="J129" s="81"/>
     </row>
     <row r="130" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="54" t="s">
-        <v>1608</v>
-      </c>
-      <c r="C130" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="54" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E130" s="54"/>
-      <c r="F130" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="G130" s="54"/>
-      <c r="H130" s="54" t="s">
-        <v>1231</v>
-      </c>
-      <c r="I130" s="54"/>
+      <c r="A130" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B130" s="65" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C130" s="65" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D130" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I130" s="65"/>
       <c r="J130" s="81"/>
     </row>
     <row r="131" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="54" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="C131" s="54" t="s">
         <v>1238</v>
       </c>
       <c r="D131" s="54" t="s">
-        <v>1626</v>
+        <v>47</v>
       </c>
       <c r="E131" s="54"/>
       <c r="F131" s="54" t="s">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="G131" s="54"/>
       <c r="H131" s="54" t="s">
-        <v>1233</v>
+        <v>1623</v>
       </c>
       <c r="I131" s="54"/>
       <c r="J131" s="81"/>
     </row>
-    <row r="132" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="54" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="C132" s="54" t="s">
-        <v>83</v>
+        <v>1238</v>
       </c>
       <c r="D132" s="54" t="s">
-        <v>1626</v>
+        <v>47</v>
       </c>
       <c r="E132" s="54"/>
       <c r="F132" s="54" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="G132" s="54"/>
       <c r="H132" s="54" t="s">
-        <v>1235</v>
+        <v>1624</v>
       </c>
       <c r="I132" s="54"/>
       <c r="J132" s="81"/>
     </row>
     <row r="133" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="54" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="C133" s="54" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D133" s="54" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E133" s="54"/>
       <c r="F133" s="54" t="s">
-        <v>305</v>
-      </c>
-      <c r="G133" s="54" t="s">
-        <v>1237</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G133" s="54"/>
       <c r="H133" s="54" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="I133" s="54"/>
       <c r="J133" s="81"/>
     </row>
     <row r="134" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B134" s="84" t="s">
+      <c r="B134" s="54" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C134" s="54" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D134" s="54" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E134" s="54"/>
+      <c r="F134" s="54" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G134" s="54"/>
+      <c r="H134" s="54" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I134" s="54"/>
+      <c r="J134" s="81"/>
+    </row>
+    <row r="135" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B135" s="54" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C135" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D135" s="54" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E135" s="54"/>
+      <c r="F135" s="54" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G135" s="54"/>
+      <c r="H135" s="54" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I135" s="54"/>
+      <c r="J135" s="81"/>
+    </row>
+    <row r="136" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B136" s="54" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C136" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136" s="54" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E136" s="54"/>
+      <c r="F136" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="G136" s="54" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H136" s="54" t="s">
+        <v>1236</v>
+      </c>
+      <c r="I136" s="54"/>
+      <c r="J136" s="81"/>
+    </row>
+    <row r="137" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B137" s="84" t="s">
         <v>1612</v>
       </c>
-      <c r="C134" s="84" t="s">
+      <c r="C137" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D134" s="84" t="s">
+      <c r="D137" s="84" t="s">
         <v>1582</v>
       </c>
-      <c r="E134" s="84" t="s">
+      <c r="E137" s="84" t="s">
         <v>1583</v>
       </c>
-      <c r="F134" s="84" t="s">
+      <c r="F137" s="84" t="s">
         <v>1584</v>
       </c>
-      <c r="G134" s="84" t="s">
+      <c r="G137" s="84" t="s">
         <v>1585</v>
       </c>
-      <c r="H134" s="84" t="s">
+      <c r="H137" s="84" t="s">
         <v>1586</v>
       </c>
-      <c r="I134" s="84"/>
-      <c r="J134" s="81"/>
-    </row>
-    <row r="135" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B135" s="84" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C135" s="84" t="s">
+      <c r="I137" s="84"/>
+      <c r="J137" s="81"/>
+    </row>
+    <row r="138" spans="1:10" ht="22.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B138" s="84" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C138" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D135" s="84" t="s">
+      <c r="D138" s="84" t="s">
         <v>1582</v>
       </c>
-      <c r="E135" s="84" t="s">
+      <c r="E138" s="84" t="s">
         <v>1587</v>
       </c>
-      <c r="F135" s="84" t="s">
+      <c r="F138" s="84" t="s">
         <v>1584</v>
       </c>
-      <c r="G135" s="84" t="s">
+      <c r="G138" s="84" t="s">
         <v>1588</v>
       </c>
-      <c r="H135" s="84" t="s">
+      <c r="H138" s="84" t="s">
         <v>1589</v>
       </c>
-      <c r="I135" s="84"/>
-      <c r="J135" s="81"/>
+      <c r="I138" s="84"/>
+      <c r="J138" s="81"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:I135" xr:uid="{BA977A27-8537-4830-A466-EEEE333129ED}"/>
+  <autoFilter ref="B5:I138" xr:uid="{BA977A27-8537-4830-A466-EEEE333129ED}"/>
   <mergeCells count="6">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:C2"/>
@@ -43044,12 +43374,12 @@
     <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B140:B1048576">
+  <conditionalFormatting sqref="B143:B1048576">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="사용자">
-      <formula>NOT(ISERROR(SEARCH("사용자",B140)))</formula>
+      <formula>NOT(ISERROR(SEARCH("사용자",B143)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="관리자">
-      <formula>NOT(ISERROR(SEARCH("관리자",B140)))</formula>
+      <formula>NOT(ISERROR(SEARCH("관리자",B143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
@@ -43063,4 +43393,561 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1816DD8F-3399-41CE-82A3-B0B984769B11}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" style="126" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="126" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.08203125" style="126" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.9140625" style="126" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.4140625" style="126" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="126"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C1" s="123" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="127" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="126"/>
+      <c r="B2" s="129">
+        <v>1</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E2" s="128" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="124">
+        <v>2</v>
+      </c>
+      <c r="C3" s="124" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D3" s="124" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E3" s="124" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="124">
+        <v>3</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D4" s="124" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E4" s="124" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="124">
+        <v>4</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="124">
+        <v>5</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E6" s="124" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="124">
+        <v>6</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D7" s="124" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="124">
+        <v>7</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E8" s="124" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="124">
+        <v>8</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E9" s="124" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="124">
+        <v>9</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="124">
+        <v>10</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E11" s="125" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="123" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C13" s="123" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D13" s="123" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E13" s="123" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="126">
+        <v>1</v>
+      </c>
+      <c r="C14" s="126" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E14" s="126" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="126">
+        <v>2</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E15" s="126" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="123" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C17" s="123" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D17" s="123" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E17" s="123" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="126">
+        <v>1</v>
+      </c>
+      <c r="C18" s="126" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D18" s="126" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E18" s="126" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="126">
+        <v>2</v>
+      </c>
+      <c r="C19" s="126" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D19" s="126" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="123" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C21" s="123" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D21" s="123" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E21" s="123" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="126">
+        <v>1</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E22" s="126" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="126">
+        <v>2</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D23" s="126" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E23" s="126" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="126">
+        <v>3</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D24" s="126" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E24" s="126" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="123" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C26" s="123" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D26" s="123" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E26" s="123" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="126">
+        <v>1</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D27" s="126" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E27" s="126" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="126">
+        <v>2</v>
+      </c>
+      <c r="C28" s="126" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D28" s="126" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E28" s="126" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="126">
+        <v>3</v>
+      </c>
+      <c r="C29" s="124" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D29" s="124" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E29" s="126" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="126" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B31" s="123" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C31" s="123" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D31" s="123" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E31" s="123" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="126">
+        <v>1</v>
+      </c>
+      <c r="C32" s="126" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D32" s="126" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E32" s="126" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="126">
+        <v>2</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D33" s="126" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E33" s="126" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="126">
+        <v>3</v>
+      </c>
+      <c r="C34" s="126" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D34" s="126" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E34" s="126" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B35" s="126">
+        <v>4</v>
+      </c>
+      <c r="C35" s="124" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D35" s="124" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E35" s="126" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="123" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C37" s="123" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D37" s="123" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E37" s="123" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="126">
+        <v>1</v>
+      </c>
+      <c r="C38" s="128" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D38" s="128" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E38" s="128" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B39" s="126">
+        <v>2</v>
+      </c>
+      <c r="C39" s="124" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D39" s="124" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E39" s="124" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B40" s="126">
+        <v>3</v>
+      </c>
+      <c r="C40" s="126" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D40" s="126" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E40" s="126" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B41" s="126">
+        <v>4</v>
+      </c>
+      <c r="C41" s="126" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D41" s="126" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E41" s="126" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B42" s="126">
+        <v>5</v>
+      </c>
+      <c r="C42" s="124" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D42" s="124" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E42" s="126" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>